--- a/me-docs/20.Cau-hinh-Category-ngoai-trang-chu.xlsx
+++ b/me-docs/20.Cau-hinh-Category-ngoai-trang-chu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E388FAB-E47F-49CF-B89F-96827628AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EAEE58-8DB6-42CD-A30F-CFF0A1B68C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="show isHome" sheetId="1" r:id="rId1"/>
+    <sheet name="change isHome" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>app\Models\CategoryModel.php</t>
   </si>
@@ -43,6 +44,18 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>Http\Controllers\CategoryController.php</t>
+  </si>
+  <si>
+    <t>Models\CategoryModel.php</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>resources\lang\en\notify.php</t>
   </si>
 </sst>
 </file>
@@ -355,6 +368,231 @@
         <a:xfrm>
           <a:off x="609600" y="18097500"/>
           <a:ext cx="10829925" cy="5550736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A0F3DA-F85E-4A96-8E2C-C980EC630B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381001"/>
+          <a:ext cx="11010900" cy="1922538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17828</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E0AE1D-65D0-46AE-A0AA-6287B25A77E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2667000"/>
+          <a:ext cx="9771428" cy="3019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>81131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1F7819-20F3-45E1-8E05-1CD63BCD1AC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="10734675" cy="5224631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>153947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A4092D-3155-4202-9BE1-2F0CA8C0E92B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11811000"/>
+          <a:ext cx="11525250" cy="5868947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503695</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F03F33-162C-41F8-B203-C6873EEA8224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="9038095" cy="2057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
@@ -671,4 +909,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029903BC-6CF5-44A3-8D43-321017829D77}">
+  <dimension ref="A2:B75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>